--- a/data/trans_orig/P63-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P63-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB15E3E-1786-4A86-ACE4-551A98E5BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4218A91-D492-4A87-8EAD-550CD54065F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39DEB89D-A09C-45B6-9463-CE389C5D3A0E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD38E362-2B75-4B30-94AC-0EFF4FBBF507}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,78%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>69,8%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>93,16%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>62,36%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>50,56%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,7 +311,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,6%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -320,19 +320,19 @@
     <t>44,7%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>66,37%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -341,25 +341,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>55,3%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>33,63%</t>
   </si>
   <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,7 +368,7 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -377,19 +377,19 @@
     <t>36,86%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -398,79 +398,79 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,61 +482,61 @@
     <t>42,2%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>81,29%</t>
+    <t>81,07%</t>
   </si>
   <si>
     <t>89,32%</t>
@@ -545,19 +545,19 @@
     <t>80,17%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>14,38%</t>
@@ -566,232 +566,232 @@
     <t>10,68%</t>
   </si>
   <si>
-    <t>18,71%</t>
+    <t>18,93%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>96,99%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,01%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,08%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>46,6%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>57,26%</t>
@@ -800,31 +800,31 @@
     <t>55,33%</t>
   </si>
   <si>
-    <t>59,25%</t>
+    <t>59,26%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>40,75%</t>
+    <t>40,74%</t>
   </si>
   <si>
     <t>44,67%</t>
@@ -833,10 +833,10 @@
     <t>29,97%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
@@ -845,205 +845,199 @@
     <t>27,72%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>89,42%</t>
+    <t>80,25%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -1052,16 +1046,16 @@
     <t>55,95%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>78,87%</t>
+    <t>78,2%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -1070,22 +1064,22 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>44,05%</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>21,13%</t>
+    <t>21,8%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -1094,19 +1088,19 @@
     <t>46,16%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>69,46%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1118,73 +1112,73 @@
     <t>53,84%</t>
   </si>
   <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
@@ -1193,367 +1187,349 @@
     <t>22,87%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>90,29%</t>
+    <t>90,07%</t>
   </si>
   <si>
     <t>81,0%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,48%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>64,27%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>58,97%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>35,73%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>41,03%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,2%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>30,8%</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A543B7D4-61BA-4CAA-BDAF-5F235150D33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4B6A9-36F7-4631-86BA-7C5786371BE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3097,7 +3073,7 @@
         <v>1544</v>
       </c>
       <c r="N23" s="7">
-        <v>1546961</v>
+        <v>1546960</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3148,7 +3124,7 @@
         <v>3693</v>
       </c>
       <c r="N24" s="7">
-        <v>3712350</v>
+        <v>3712349</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3184,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB15C074-2E8F-493B-9EB4-1D2EC5BC959C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CC784-D09E-4007-A88A-4B851A86122D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4301,7 +4277,7 @@
         <v>1044</v>
       </c>
       <c r="I23" s="7">
-        <v>1109351</v>
+        <v>1109352</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>260</v>
@@ -4352,7 +4328,7 @@
         <v>2409</v>
       </c>
       <c r="I24" s="7">
-        <v>2595402</v>
+        <v>2595403</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4403,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EAAD97-D33B-4B6E-8862-ECFA1AB349AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB8AA1F-40DE-40C5-AC40-46CFAB12CCA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,10 +4661,10 @@
         <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>226</v>
@@ -4736,10 +4712,10 @@
         <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4998,7 +4974,7 @@
         <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>253</v>
@@ -5007,13 +4983,13 @@
         <v>271134</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>501</v>
@@ -5022,13 +4998,13 @@
         <v>546110</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5019,13 @@
         <v>3344</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
@@ -5058,13 +5034,13 @@
         <v>132661</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>127</v>
@@ -5073,13 +5049,13 @@
         <v>136005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5123,13 @@
         <v>308839</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -5162,13 +5138,13 @@
         <v>217451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>466</v>
@@ -5177,13 +5153,13 @@
         <v>526290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5174,13 @@
         <v>3353</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -5213,13 +5189,13 @@
         <v>171205</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5228,13 +5204,13 @@
         <v>174558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5275,13 @@
         <v>621</v>
       </c>
       <c r="D19" s="7">
-        <v>585343</v>
+        <v>585342</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -5317,13 +5293,13 @@
         <v>354091</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>919</v>
@@ -5332,13 +5308,13 @@
         <v>939433</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,10 +5332,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>347</v>
@@ -5368,13 +5344,13 @@
         <v>413083</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -5383,13 +5359,13 @@
         <v>413083</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,7 +5377,7 @@
         <v>621</v>
       </c>
       <c r="D21" s="7">
-        <v>585343</v>
+        <v>585342</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5457,13 +5433,13 @@
         <v>1678512</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>1322</v>
@@ -5472,13 +5448,13 @@
         <v>1413352</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>2953</v>
@@ -5487,13 +5463,13 @@
         <v>3091864</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5484,13 @@
         <v>287145</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>992</v>
@@ -5523,13 +5499,13 @@
         <v>1082025</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>1264</v>
@@ -5538,13 +5514,13 @@
         <v>1369170</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FB2AFE-95EA-4C4F-BE22-9F07984D7164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEBDA30-76CE-42DF-985E-A6564646AAA7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5639,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,13 +5722,13 @@
         <v>59762</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5761,13 +5737,13 @@
         <v>36770</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5776,13 +5752,13 @@
         <v>96532</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5773,13 @@
         <v>201524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -5812,13 +5788,13 @@
         <v>199425</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5827,13 +5803,13 @@
         <v>400949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5877,13 @@
         <v>55405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -5916,13 +5892,13 @@
         <v>113734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -5931,13 +5907,13 @@
         <v>169139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5928,13 @@
         <v>13446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -5967,13 +5943,13 @@
         <v>50750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5982,13 +5958,13 @@
         <v>64196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,10 +6032,10 @@
         <v>74129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>91</v>
@@ -6071,13 +6047,13 @@
         <v>164501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>304</v>
@@ -6086,13 +6062,13 @@
         <v>238630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6083,13 @@
         <v>2146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -6122,13 +6098,13 @@
         <v>38599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -6137,13 +6113,13 @@
         <v>40745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6187,13 @@
         <v>132995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -6226,13 +6202,13 @@
         <v>187574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>428</v>
@@ -6241,13 +6217,13 @@
         <v>320569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6238,13 @@
         <v>9229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -6277,13 +6253,13 @@
         <v>91474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6292,13 +6268,13 @@
         <v>100704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6342,13 @@
         <v>275557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>424</v>
@@ -6381,13 +6357,13 @@
         <v>250203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>725</v>
@@ -6396,13 +6372,13 @@
         <v>525760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6393,13 @@
         <v>3549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -6432,13 +6408,13 @@
         <v>115573</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>188</v>
@@ -6447,13 +6423,13 @@
         <v>119122</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6497,13 @@
         <v>673960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1028</v>
@@ -6536,13 +6512,13 @@
         <v>644943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>2020</v>
@@ -6551,13 +6527,13 @@
         <v>1318903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6548,13 @@
         <v>3498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>636</v>
@@ -6587,13 +6563,13 @@
         <v>358541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -6602,13 +6578,13 @@
         <v>362039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6652,13 @@
         <v>1271807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>2126</v>
@@ -6691,13 +6667,13 @@
         <v>1397726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>3689</v>
@@ -6706,13 +6682,13 @@
         <v>2669534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6703,13 @@
         <v>233394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>1159</v>
@@ -6742,13 +6718,13 @@
         <v>854361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>1271</v>
@@ -6757,13 +6733,13 @@
         <v>1087754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P63-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P63-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4218A91-D492-4A87-8EAD-550CD54065F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B37D1C-F7F7-4485-8AA9-758DC8187E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD38E362-2B75-4B30-94AC-0EFF4FBBF507}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB4829E-C946-4523-A291-32BD4BDC9ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="489">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,22%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,78%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>77,77%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>69,8%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>72,86%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>68,84%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>27,14%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>31,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +191,55 @@
     <t>93,16%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>62,36%</t>
   </si>
   <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,16 +248,16 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>44,14%</t>
+    <t>44,01%</t>
   </si>
   <si>
     <t>54,66%</t>
@@ -272,19 +266,19 @@
     <t>57,54%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>50,56%</t>
@@ -293,16 +287,16 @@
     <t>45,34%</t>
   </si>
   <si>
-    <t>55,86%</t>
+    <t>55,99%</t>
   </si>
   <si>
     <t>42,46%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,7 +305,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -320,19 +314,19 @@
     <t>44,7%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>66,37%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -341,25 +335,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>55,3%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>33,63%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1102 +362,1084 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2016 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -1941,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4B6A9-36F7-4631-86BA-7C5786371BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC34A7-10D9-4647-888D-6FEE2574609D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2256,7 +2232,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2247,13 @@
         <v>39147</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -2286,13 +2262,13 @@
         <v>85453</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -2301,13 +2277,13 @@
         <v>124600</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2339,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2375,13 +2351,13 @@
         <v>66191</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>233</v>
@@ -2390,13 +2366,13 @@
         <v>240217</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>293</v>
@@ -2405,13 +2381,13 @@
         <v>306408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2402,13 @@
         <v>4863</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -2441,13 +2417,13 @@
         <v>144980</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -2456,13 +2432,13 @@
         <v>149844</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,7 +2494,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2530,13 +2506,13 @@
         <v>74403</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2545,13 +2521,13 @@
         <v>170445</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>238</v>
@@ -2560,13 +2536,13 @@
         <v>244847</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2557,13 @@
         <v>6424</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -2596,13 +2572,13 @@
         <v>174283</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -2611,13 +2587,13 @@
         <v>180707</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2649,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2685,13 +2661,13 @@
         <v>220374</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -2700,13 +2676,13 @@
         <v>151451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -2715,13 +2691,13 @@
         <v>371825</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2712,13 @@
         <v>1054</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>185</v>
@@ -2751,13 +2727,13 @@
         <v>187383</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -2766,13 +2742,13 @@
         <v>188437</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2804,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2816,13 @@
         <v>493783</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
@@ -2855,13 +2831,13 @@
         <v>248151</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>759</v>
@@ -2870,13 +2846,13 @@
         <v>741934</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2867,13 @@
         <v>3645</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>412</v>
@@ -2906,13 +2882,13 @@
         <v>425070</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>416</v>
@@ -2921,13 +2897,13 @@
         <v>428715</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2971,13 @@
         <v>1065214</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1073</v>
@@ -3010,13 +2986,13 @@
         <v>1100174</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2149</v>
@@ -3025,13 +3001,13 @@
         <v>2165389</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3022,13 @@
         <v>298201</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1238</v>
@@ -3061,13 +3037,13 @@
         <v>1248760</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1544</v>
@@ -3076,13 +3052,13 @@
         <v>1546960</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3114,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2CC784-D09E-4007-A88A-4B851A86122D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B6D57A-D3EF-474E-95B7-1FC359C78E3B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,7 +3153,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,13 +3260,13 @@
         <v>155494</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -3299,13 +3275,13 @@
         <v>102384</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>250</v>
@@ -3314,13 +3290,13 @@
         <v>257878</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3311,13 @@
         <v>212943</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>237</v>
@@ -3350,13 +3326,13 @@
         <v>240045</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>450</v>
@@ -3365,13 +3341,13 @@
         <v>452988</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3415,13 @@
         <v>257956</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -3454,13 +3430,13 @@
         <v>266188</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>503</v>
@@ -3469,13 +3445,13 @@
         <v>524144</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3466,13 @@
         <v>43308</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -3505,13 +3481,13 @@
         <v>65856</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3520,13 +3496,13 @@
         <v>109164</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3558,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3594,13 +3570,13 @@
         <v>251447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>313</v>
@@ -3609,13 +3585,13 @@
         <v>340345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>549</v>
@@ -3624,13 +3600,13 @@
         <v>591793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3621,13 @@
         <v>2254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -3660,13 +3636,13 @@
         <v>81881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3675,13 +3651,13 @@
         <v>84135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3713,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3749,13 +3725,13 @@
         <v>239490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -3764,13 +3740,13 @@
         <v>246537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>432</v>
@@ -3779,13 +3755,13 @@
         <v>486027</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3776,13 @@
         <v>5378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -3815,13 +3791,13 @@
         <v>138986</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>130</v>
@@ -3830,13 +3806,13 @@
         <v>144364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3868,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3904,13 +3880,13 @@
         <v>270080</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -3919,13 +3895,13 @@
         <v>186135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>411</v>
@@ -3934,13 +3910,13 @@
         <v>456214</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3931,13 @@
         <v>1012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -3970,13 +3946,13 @@
         <v>187878</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -3985,13 +3961,13 @@
         <v>188891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4035,13 @@
         <v>554633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -4074,13 +4050,13 @@
         <v>344463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>821</v>
@@ -4089,13 +4065,13 @@
         <v>899096</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4086,13 @@
         <v>1988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -4125,13 +4101,13 @@
         <v>394704</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -4140,13 +4116,13 @@
         <v>396692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4190,13 @@
         <v>1729101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -4229,13 +4205,13 @@
         <v>1486051</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>2966</v>
@@ -4244,13 +4220,13 @@
         <v>3215153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4241,13 @@
         <v>266882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>1044</v>
@@ -4280,13 +4256,13 @@
         <v>1109352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>1309</v>
@@ -4295,13 +4271,13 @@
         <v>1376233</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4333,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB8AA1F-40DE-40C5-AC40-46CFAB12CCA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F4B0DA-E6ED-462D-A462-5183E39465C6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4396,7 +4372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4503,13 +4479,13 @@
         <v>93140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -4518,13 +4494,13 @@
         <v>78368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>170</v>
@@ -4533,13 +4509,13 @@
         <v>171509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4530,13 @@
         <v>242810</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -4569,13 +4545,13 @@
         <v>225532</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>457</v>
@@ -4584,13 +4560,13 @@
         <v>468341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4634,13 @@
         <v>208574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>226</v>
@@ -4673,13 +4649,13 @@
         <v>220563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>426</v>
@@ -4688,13 +4664,13 @@
         <v>429136</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4685,13 @@
         <v>35770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4724,13 +4700,13 @@
         <v>67317</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -4739,13 +4715,13 @@
         <v>103087</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4777,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4813,13 +4789,13 @@
         <v>207640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -4828,13 +4804,13 @@
         <v>271745</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
@@ -4843,13 +4819,13 @@
         <v>479385</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4840,13 @@
         <v>1869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -4879,13 +4855,13 @@
         <v>72227</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -4894,13 +4870,13 @@
         <v>74096</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4932,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4968,13 +4944,13 @@
         <v>274976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>253</v>
@@ -4983,13 +4959,13 @@
         <v>271134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>501</v>
@@ -4998,13 +4974,13 @@
         <v>546110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4995,13 @@
         <v>3344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
@@ -5034,13 +5010,13 @@
         <v>132661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>127</v>
@@ -5049,13 +5025,13 @@
         <v>136005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5087,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5123,13 +5099,13 @@
         <v>308839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -5138,13 +5114,13 @@
         <v>217451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>466</v>
@@ -5153,13 +5129,13 @@
         <v>526290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5150,13 @@
         <v>3353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -5189,13 +5165,13 @@
         <v>171205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -5204,13 +5180,13 @@
         <v>174558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5242,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5275,13 +5251,13 @@
         <v>621</v>
       </c>
       <c r="D19" s="7">
-        <v>585342</v>
+        <v>585343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>30</v>
@@ -5293,13 +5269,13 @@
         <v>354091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>919</v>
@@ -5308,13 +5284,13 @@
         <v>939433</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>347</v>
@@ -5344,13 +5320,13 @@
         <v>413083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>347</v>
@@ -5359,13 +5335,13 @@
         <v>413083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,7 +5353,7 @@
         <v>621</v>
       </c>
       <c r="D21" s="7">
-        <v>585342</v>
+        <v>585343</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5433,13 +5409,13 @@
         <v>1678512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>1322</v>
@@ -5448,13 +5424,13 @@
         <v>1413352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>2953</v>
@@ -5463,13 +5439,13 @@
         <v>3091864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5460,13 @@
         <v>287145</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H23" s="7">
         <v>992</v>
@@ -5499,13 +5475,13 @@
         <v>1082025</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M23" s="7">
         <v>1264</v>
@@ -5514,13 +5490,13 @@
         <v>1369170</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,7 +5552,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEBDA30-76CE-42DF-985E-A6564646AAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470AED1-C168-4C9B-9345-6C9E7F067EC1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5615,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,13 +5698,13 @@
         <v>59762</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5737,13 +5713,13 @@
         <v>36770</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5752,13 +5728,13 @@
         <v>96532</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5749,13 @@
         <v>201524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -5788,13 +5764,13 @@
         <v>199425</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5803,13 +5779,13 @@
         <v>400949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5853,13 @@
         <v>55405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -5892,13 +5868,13 @@
         <v>113734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -5907,13 +5883,13 @@
         <v>169139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5904,13 @@
         <v>13446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -5943,13 +5919,13 @@
         <v>50750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5958,13 +5934,13 @@
         <v>64196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +5996,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6032,13 +6008,13 @@
         <v>74129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>235</v>
@@ -6047,13 +6023,13 @@
         <v>164501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>304</v>
@@ -6062,13 +6038,13 @@
         <v>238630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6059,13 @@
         <v>2146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -6098,13 +6074,13 @@
         <v>38599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -6113,13 +6089,13 @@
         <v>40745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6151,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6163,13 @@
         <v>132995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -6202,13 +6178,13 @@
         <v>187574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>428</v>
@@ -6217,13 +6193,13 @@
         <v>320569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6214,13 @@
         <v>9229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>130</v>
@@ -6253,13 +6229,13 @@
         <v>91474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -6268,13 +6244,13 @@
         <v>100704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +6306,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6342,13 +6318,13 @@
         <v>275557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H16" s="7">
         <v>424</v>
@@ -6357,13 +6333,13 @@
         <v>250203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M16" s="7">
         <v>725</v>
@@ -6372,13 +6348,13 @@
         <v>525760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6369,13 @@
         <v>3549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -6408,13 +6384,13 @@
         <v>115573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>188</v>
@@ -6423,13 +6399,13 @@
         <v>119122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6461,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6473,13 @@
         <v>673960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>1028</v>
@@ -6512,13 +6488,13 @@
         <v>644943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>2020</v>
@@ -6527,13 +6503,13 @@
         <v>1318903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6524,13 @@
         <v>3498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>636</v>
@@ -6563,13 +6539,13 @@
         <v>358541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>642</v>
@@ -6578,13 +6554,13 @@
         <v>362039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6628,13 @@
         <v>1271807</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>2126</v>
@@ -6667,13 +6643,13 @@
         <v>1397726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>3689</v>
@@ -6682,10 +6658,10 @@
         <v>2669534</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>27</v>
@@ -6703,13 +6679,13 @@
         <v>233394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>1159</v>
@@ -6718,13 +6694,13 @@
         <v>854361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>1271</v>
@@ -6733,13 +6709,13 @@
         <v>1087754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,7 +6771,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
